--- a/biology/Botanique/Tocoyena/Tocoyena.xlsx
+++ b/biology/Botanique/Tocoyena/Tocoyena.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tocoyena est un genre d'arbuste, de la région néotropicale, appartenant à la famille des Rubiaceae, dont l'espèce type est Tocoyena longiflora Aubl., et comptant entre 26 et 51 espèces.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tocoyena est un genre d'arbres ou d'arbustes.
 Les stipules interpétiolaires sont persistantes et de forme triangulaire. 
@@ -521,7 +535,7 @@
 Les étamines sont exsertes, insérées à l'embouchure de la corolle, avec des anthères dorsifixes.
 L'ovaire compte 2 locules, avec de nombreux ovules par locule.
 Le fruits est une baie à péricarpe épais et coriace, et contenant de nombreuses graines.
-Les graines sont subcompressées, horizontales, englobées dans la pulpe charnue[3].
+Les graines sont subcompressées, horizontales, englobées dans la pulpe charnue.
 </t>
         </is>
       </c>
@@ -550,9 +564,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La phylogénie de Tocoyena a été étudiée[4],[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La phylogénie de Tocoyena a été étudiée,.
 </t>
         </is>
       </c>
@@ -581,9 +597,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet propose le protologue suivant[6] : 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet propose le protologue suivant : 
 « TOCOYENA. (Tabula 50.)
 CAL. Perianthium monophyllum, turbinatum, quinquedentatum, baſi ſquamulis duabus munitum.
 COR. monopetala, hypocrateri-formis : tubus longiſſimus, anguſtus, versus ſaucem ventricoſus, diſco ſuprà germen infertus ; limbus quinquepartitus, lobis ovatis, acutis.
@@ -620,9 +638,11 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (07 février 2024)[7] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (07 février 2024) :
 Tocoyena arenicola Delprete
 Tocoyena atlantica R.Borges &amp; Gaem
 Tocoyena brevifolia Steyerm.
@@ -651,7 +671,7 @@
 Tocoyena uniflora Kunth
 Tocoyena viscidula Mart.
 Ucriana longifolia D.Dietr.
-Selon Tropicos                                           (07 février 2024)[8] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (07 février 2024) (Attention liste brute contenant possiblement des synonymes) :
 Tocoyena acutiflora Mart., 1841
 Tocoyena amazonica Standl., 1931
 Tocoyena arenicola Delprete, 2008
@@ -673,15 +693,15 @@
 Tocoyena latifolia Lam., 1793
 Tocoyena longiflora Aubl., 1775
 Tocoyena longiflora (Griseb.) K. Schum., 1891
-Tocoyena longifolia Kunth, 1818 [1820]
+Tocoyena longifolia Kunth, 1818 
 Tocoyena longilobata R. Borges, 2020
 Tocoyena lychnophora Casar. ex K. Schum., 1889
-Tocoyena macrophylla Kunth, 1818 [1820]
-Tocoyena mansoana Angely, 1970 [1971]
+Tocoyena macrophylla Kunth, 1818 
+Tocoyena mansoana Angely, 1970 
 Tocoyena megistantha Standl., 1937
 Tocoyena microdon Mart., 1841
 Tocoyena mollis K. Krause, 1914
-Tocoyena mutisii Kunth, 1818 [1820]
+Tocoyena mutisii Kunth, 1818 
 Tocoyena neglecta N.E. Br., 1901
 Tocoyena obliquinervia (Standl.) Standl., 1933
 Tocoyena orinocensis Standl. &amp; Steyerm., 1953
